--- a/contratos/contratos-6-2012.xlsx
+++ b/contratos/contratos-6-2012.xlsx
@@ -490,13 +490,13 @@
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>COOP. DE PROVISION DE OBRAS Y SERVICIOS PUBLICOS URUGUAY LTDA.</t>
@@ -829,313 +829,313 @@
     <t>13</t>
   </si>
   <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>4.832,50</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>798,60</t>
-  </si>
-  <si>
-    <t>278,00</t>
-  </si>
-  <si>
-    <t>77.930,40</t>
-  </si>
-  <si>
-    <t>21.869,79</t>
-  </si>
-  <si>
-    <t>5.894,50</t>
-  </si>
-  <si>
-    <t>13.196,55</t>
-  </si>
-  <si>
-    <t>2.366,61</t>
-  </si>
-  <si>
-    <t>15.316,11</t>
-  </si>
-  <si>
-    <t>9.126,75</t>
-  </si>
-  <si>
-    <t>626,50</t>
-  </si>
-  <si>
-    <t>11.273,11</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>26.440,00</t>
-  </si>
-  <si>
-    <t>11.641,82</t>
-  </si>
-  <si>
-    <t>391,50</t>
-  </si>
-  <si>
-    <t>6.868,51</t>
-  </si>
-  <si>
-    <t>142,26</t>
-  </si>
-  <si>
-    <t>69.080,64</t>
-  </si>
-  <si>
-    <t>286,03</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>1.870,40</t>
-  </si>
-  <si>
-    <t>26.218,26</t>
-  </si>
-  <si>
-    <t>18.871,48</t>
-  </si>
-  <si>
-    <t>634,00</t>
-  </si>
-  <si>
-    <t>119,12</t>
-  </si>
-  <si>
-    <t>540,43</t>
-  </si>
-  <si>
-    <t>423,05</t>
-  </si>
-  <si>
-    <t>5.299,00</t>
-  </si>
-  <si>
-    <t>4.122,00</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>14.560,00</t>
-  </si>
-  <si>
-    <t>1.504,51</t>
-  </si>
-  <si>
-    <t>37,09</t>
-  </si>
-  <si>
-    <t>2.292,95</t>
-  </si>
-  <si>
-    <t>6.610,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>2.444,00</t>
-  </si>
-  <si>
-    <t>18.996,00</t>
-  </si>
-  <si>
-    <t>8.130,00</t>
-  </si>
-  <si>
-    <t>1.142,00</t>
-  </si>
-  <si>
-    <t>241,97</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>0,04</t>
-  </si>
-  <si>
-    <t>157.316,76</t>
-  </si>
-  <si>
-    <t>434.610,00</t>
-  </si>
-  <si>
-    <t>0,92</t>
-  </si>
-  <si>
-    <t>3.367,00</t>
-  </si>
-  <si>
-    <t>31,81</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>244,00</t>
-  </si>
-  <si>
-    <t>3.860,00</t>
-  </si>
-  <si>
-    <t>1.363,70</t>
-  </si>
-  <si>
-    <t>1.339,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>16.035,00</t>
-  </si>
-  <si>
-    <t>2.398,00</t>
-  </si>
-  <si>
-    <t>788,45</t>
-  </si>
-  <si>
-    <t>29,56</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>1.005.000,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>7.823,37</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>1.905,00</t>
-  </si>
-  <si>
-    <t>1.470,97</t>
-  </si>
-  <si>
-    <t>2.676,00</t>
-  </si>
-  <si>
-    <t>361,62</t>
-  </si>
-  <si>
-    <t>492,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>979,70</t>
-  </si>
-  <si>
-    <t>29.960,00</t>
-  </si>
-  <si>
-    <t>877,20</t>
-  </si>
-  <si>
-    <t>119,76</t>
-  </si>
-  <si>
-    <t>2.338,95</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>88.500,00</t>
-  </si>
-  <si>
-    <t>65.500,00</t>
-  </si>
-  <si>
-    <t>43.000,00</t>
-  </si>
-  <si>
-    <t>47.500,00</t>
-  </si>
-  <si>
-    <t>104.000,00</t>
-  </si>
-  <si>
-    <t>86.000,00</t>
-  </si>
-  <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>417.961,66</t>
-  </si>
-  <si>
-    <t>32.400,00</t>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>4832.50</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>798.60</t>
+  </si>
+  <si>
+    <t>278.00</t>
+  </si>
+  <si>
+    <t>77930.40</t>
+  </si>
+  <si>
+    <t>21869.79</t>
+  </si>
+  <si>
+    <t>5894.50</t>
+  </si>
+  <si>
+    <t>13196.55</t>
+  </si>
+  <si>
+    <t>2366.61</t>
+  </si>
+  <si>
+    <t>15316.11</t>
+  </si>
+  <si>
+    <t>9126.75</t>
+  </si>
+  <si>
+    <t>626.50</t>
+  </si>
+  <si>
+    <t>11273.11</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>26440.00</t>
+  </si>
+  <si>
+    <t>11641.82</t>
+  </si>
+  <si>
+    <t>391.50</t>
+  </si>
+  <si>
+    <t>6868.51</t>
+  </si>
+  <si>
+    <t>142.26</t>
+  </si>
+  <si>
+    <t>69080.64</t>
+  </si>
+  <si>
+    <t>286.03</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>1870.40</t>
+  </si>
+  <si>
+    <t>26218.26</t>
+  </si>
+  <si>
+    <t>18871.48</t>
+  </si>
+  <si>
+    <t>634.00</t>
+  </si>
+  <si>
+    <t>119.12</t>
+  </si>
+  <si>
+    <t>540.43</t>
+  </si>
+  <si>
+    <t>423.05</t>
+  </si>
+  <si>
+    <t>5299.00</t>
+  </si>
+  <si>
+    <t>4122.00</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>14560.00</t>
+  </si>
+  <si>
+    <t>1504.51</t>
+  </si>
+  <si>
+    <t>37.09</t>
+  </si>
+  <si>
+    <t>2292.95</t>
+  </si>
+  <si>
+    <t>6610.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>2444.00</t>
+  </si>
+  <si>
+    <t>18996.00</t>
+  </si>
+  <si>
+    <t>8130.00</t>
+  </si>
+  <si>
+    <t>1142.00</t>
+  </si>
+  <si>
+    <t>241.97</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>157316.76</t>
+  </si>
+  <si>
+    <t>434610.00</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>3367.00</t>
+  </si>
+  <si>
+    <t>31.81</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>244.00</t>
+  </si>
+  <si>
+    <t>3860.00</t>
+  </si>
+  <si>
+    <t>1363.70</t>
+  </si>
+  <si>
+    <t>1339.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>16035.00</t>
+  </si>
+  <si>
+    <t>2398.00</t>
+  </si>
+  <si>
+    <t>788.45</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>1005000.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>7823.37</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>1905.00</t>
+  </si>
+  <si>
+    <t>1470.97</t>
+  </si>
+  <si>
+    <t>2676.00</t>
+  </si>
+  <si>
+    <t>361.62</t>
+  </si>
+  <si>
+    <t>492.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>979.70</t>
+  </si>
+  <si>
+    <t>29960.00</t>
+  </si>
+  <si>
+    <t>877.20</t>
+  </si>
+  <si>
+    <t>119.76</t>
+  </si>
+  <si>
+    <t>2338.95</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>88500.00</t>
+  </si>
+  <si>
+    <t>65500.00</t>
+  </si>
+  <si>
+    <t>43000.00</t>
+  </si>
+  <si>
+    <t>47500.00</t>
+  </si>
+  <si>
+    <t>104000.00</t>
+  </si>
+  <si>
+    <t>86000.00</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>417961.66</t>
+  </si>
+  <si>
+    <t>32400.00</t>
   </si>
 </sst>
 </file>
